--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF8573-4399-2F41-BFC7-E4151EA33BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911281D-2082-C04C-811E-DE97A05583B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="-2460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Conventions</t>
   </si>
   <si>
-    <t>CF-1.6, NCAS-AMF-1.0</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t>location_keywords</t>
   </si>
   <si>
-    <t>amf_vocabularies_release</t>
-  </si>
-  <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/0.5.0</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -251,13 +242,16 @@
   </si>
   <si>
     <t>https://github.com/heatherguy/ace-ceda-master</t>
+  </si>
+  <si>
+    <t>CF-1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,13 +279,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -353,9 +340,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -385,26 +372,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -698,7 +682,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -721,273 +705,273 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1003,46 +987,42 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
+      <c r="B39" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1059,7 +1039,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1067,7 +1047,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1082,11 +1062,11 @@
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1126,7 +1106,6 @@
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3946,18 +3925,15 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="6"/>
     </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1003" s="6"/>
-    </row>
+    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D911281D-2082-C04C-811E-DE97A05583B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986DFF1-B7B3-AA4F-9415-D1CD052FAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="-2460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>3267 m</t>
   </si>
   <si>
-    <t>72.572962N, -38.470361E</t>
-  </si>
-  <si>
     <t>Summit, Greenland, Greenland Ice Sheet</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>CF-1.6</t>
+  </si>
+  <si>
+    <t>72.572962N -38.470361E</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -745,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,7 +971,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -998,7 +998,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1006,7 +1006,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986DFF1-B7B3-AA4F-9415-D1CD052FAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB044ED-1C37-D84E-A173-EC507771F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="-2460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>https://orcid.org/0000-0003-4560-4812</t>
   </si>
   <si>
-    <t>Acknowledgement of the University of Leeds as the data provider is required whenever and wherever these data are used</t>
-  </si>
-  <si>
     <t>Summit Station</t>
   </si>
   <si>
@@ -245,13 +242,36 @@
   </si>
   <si>
     <t>72.572962N -38.470361E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acknowledgement of the following grants is required: NSFGE Grant Award number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1801318, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NERC Grant Award number NE/S00906X/1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -308,6 +328,18 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -392,6 +424,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,10 +712,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -713,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -745,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -753,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -906,12 +939,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>63</v>
+      <c r="B28" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -990,7 +1023,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -998,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1006,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1014,7 +1047,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB044ED-1C37-D84E-A173-EC507771F659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F5F16-1721-0143-9EA4-51D3BBC95D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37600" yWindow="-2460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31420" yWindow="-2460" windowWidth="34980" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -187,16 +187,7 @@
     <t>As per manufacturers specifications</t>
   </si>
   <si>
-    <t>available on request</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
     <t>30 minutes</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>ICECAPS-ACE</t>
@@ -265,6 +256,18 @@
       </rPr>
       <t>NERC Grant Award number NE/S00906X/1</t>
     </r>
+  </si>
+  <si>
+    <t>uSonic-3: 4.65c</t>
+  </si>
+  <si>
+    <t>uSonic-3: 2019-12-03</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>uSonic-3: https://github.com/heatherguy/ace-ceda-master/blob/master/calibration_certificates/20191204_0111117433_factory_certificate.pdf</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -425,6 +428,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,10 +716,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -738,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -746,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -778,15 +782,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>70</v>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -826,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -850,15 +854,15 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>56</v>
+      <c r="B17" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -866,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -874,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -890,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -912,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -920,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -928,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -944,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -952,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,7 +980,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1004,7 +1008,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1023,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,7 +1035,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1039,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1047,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3965,8 +3969,9 @@
     <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://github.com/heatherguy/ace-ceda-master/blob/master/calibration_certificates/20191204_0111117432_factory_certificate.pdf" xr:uid="{B6C5C697-55C6-374F-8A1E-B38C10D8FB66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F5F16-1721-0143-9EA4-51D3BBC95D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E65EAB-E3B8-B941-BD5E-FFC83D2FA39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31420" yWindow="-2460" windowWidth="34980" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>v1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeSeriesPoint </t>
   </si>
   <si>
     <t>Sonic - Metek, Gas analyser - LI-COR</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>uSonic-3: https://github.com/heatherguy/ace-ceda-master/blob/master/calibration_certificates/20191204_0111117433_factory_certificate.pdf</t>
+  </si>
+  <si>
+    <t>timeSeries</t>
   </si>
 </sst>
 </file>
@@ -716,10 +716,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -774,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -854,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -862,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -870,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -980,15 +980,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
+      <c r="B33" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1027,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1035,7 +1035,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1043,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1051,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E65EAB-E3B8-B941-BD5E-FFC83D2FA39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E1B6F-FB02-7F45-88EA-A4F117EBFC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31420" yWindow="-2460" windowWidth="34980" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31420" yWindow="-1640" windowWidth="34980" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Data collection start: 2019-06-01T00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platform height is the top of the Met tower, sensor height is plaform height minus 12.5 m. 10 Hz sampling rate on both licor and sonic. Runs 30 mins in length. Run time stamp: start of run. </t>
   </si>
   <si>
     <t>ACE-flux-1: uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>timeSeries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform height is the top of the Met tower, sensor height is plaform height minus 10.87 m. 10 Hz sampling rate on both licor and sonic. Runs 30 mins in length. Run time stamp: start of run. </t>
   </si>
 </sst>
 </file>
@@ -716,10 +716,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -854,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -862,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1051,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/flux_metadata_level1_30min.xlsx
+++ b/metadata/flux_metadata_level1_30min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E1B6F-FB02-7F45-88EA-A4F117EBFC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE0C53-11EE-1A4D-B01D-393581A8B28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31420" yWindow="-1640" windowWidth="34980" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31360" yWindow="-10580" windowWidth="17920" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Summit, Greenland, Greenland Ice Sheet</t>
-  </si>
-  <si>
-    <t>Data collection start: 2019-06-01T00:00:00</t>
   </si>
   <si>
     <t>ACE-flux-1: uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
@@ -267,7 +264,10 @@
     <t>timeSeries</t>
   </si>
   <si>
-    <t xml:space="preserve">Platform height is the top of the Met tower, sensor height is plaform height minus 10.87 m. 10 Hz sampling rate on both licor and sonic. Runs 30 mins in length. Run time stamp: start of run. </t>
+    <t xml:space="preserve">Platform height is the top of the Met tower, sensor height is plaform height minus 10.87 m. 10 Hz sampling rate on both licor and sonic. Runs 15 mins in length. Run time stamp: start of run. </t>
+  </si>
+  <si>
+    <t>Data collection start: 2019-06-01T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -716,10 +716,10 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -854,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -862,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1008,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1043,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1051,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
